--- a/Topic List/LeetCode 题单.xlsx
+++ b/Topic List/LeetCode 题单.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\0.Computer learn\Algorithm\ZUO_Algorithm\Topic List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226A0A20-E3C7-42B1-A424-7739FFBB7033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFC5E7C-9A12-49D0-9C3D-6B430A07BA55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ACF4A174-AC8F-47FE-8AD7-273E152013E1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="244">
   <si>
     <t>https://github.com/algorithmzuo</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -930,13 +930,90 @@
   <si>
     <t>class 043</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/super-palindromes/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeetCode 906. 超级回文数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Palindrome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/palindrome-number/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeetCode 9.回文数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/implement-trie-ii-prefix-tree/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeetCode 1804. 实现 Trie （前缀树） II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class 044</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.nowcoder.com/practice/7f8a8553ddbf4eaab749ec988726702b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.nowcoder.com/practice/c552d3b4dfda49ccb883a6371d9a6932</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NowCoder 接头密匙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NowCoder 字典树的实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeetCode 421. 数组中两个数的最大异或值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/maximum-xor-of-two-numbers-in-an-array/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/word-search-ii/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeetCode 212. 单词搜索 II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class 045</t>
+  </si>
+  <si>
+    <t>class 046</t>
+  </si>
+  <si>
+    <t>class 047</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -985,6 +1062,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1017,7 +1101,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1043,6 +1127,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1448,10 +1538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E82B7489-51ED-4191-97F8-2AA11E2CB4E2}">
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView tabSelected="1" topLeftCell="B71" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2735,6 +2825,9 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="6">
+        <v>75</v>
+      </c>
       <c r="B77" t="s">
         <v>219</v>
       </c>
@@ -2749,6 +2842,9 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="6">
+        <v>76</v>
+      </c>
       <c r="B78" t="s">
         <v>223</v>
       </c>
@@ -2760,6 +2856,125 @@
       </c>
       <c r="E78" s="2" t="s">
         <v>220</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="6">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>223</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="6">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>223</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="6">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>232</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="6">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>232</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="6">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>241</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="6">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>242</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="6">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>243</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -2838,9 +3053,17 @@
     <hyperlink ref="E76" r:id="rId71" xr:uid="{F07C7424-8265-40EE-A111-08C6FD82B950}"/>
     <hyperlink ref="E77" r:id="rId72" xr:uid="{98E972FF-35EA-43D1-916A-88BFE287C621}"/>
     <hyperlink ref="E78" r:id="rId73" xr:uid="{A8D7F638-48F3-4B65-8711-DB6BAE0F5EF5}"/>
+    <hyperlink ref="E79" r:id="rId74" xr:uid="{74C50BB5-E7A8-42C3-BC48-6FAF4DB8EDF2}"/>
+    <hyperlink ref="E80" r:id="rId75" xr:uid="{87936A91-08D0-4747-BAC2-B3B3C2518B2D}"/>
+    <hyperlink ref="E81" r:id="rId76" xr:uid="{F0626FDA-41D3-46B1-A512-B4AD430B71DE}"/>
+    <hyperlink ref="E82" r:id="rId77" xr:uid="{405662C4-8E7F-4DB9-8F11-EF7A9B33440D}"/>
+    <hyperlink ref="E83" r:id="rId78" xr:uid="{7ED92564-B518-4D13-8C94-B6934A839024}"/>
+    <hyperlink ref="D83" r:id="rId79" display="https://www.nowcoder.com/practice/c552d3b4dfda49ccb883a6371d9a6932" xr:uid="{39A89C23-5392-426F-BF0B-28CBCA4F3D40}"/>
+    <hyperlink ref="E84" r:id="rId80" xr:uid="{557367C1-AF0D-4037-B378-6EACAFCD1F63}"/>
+    <hyperlink ref="E85" r:id="rId81" xr:uid="{EB3F6902-5E01-43E3-9377-94B2A946F7BC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId74"/>
-  <drawing r:id="rId75"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId82"/>
+  <drawing r:id="rId83"/>
 </worksheet>
 </file>
--- a/Topic List/LeetCode 题单.xlsx
+++ b/Topic List/LeetCode 题单.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\0.Computer learn\Algorithm\ZUO_Algorithm\Topic List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFC5E7C-9A12-49D0-9C3D-6B430A07BA55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB757DB2-D1EA-4488-A932-C6A2759016CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ACF4A174-AC8F-47FE-8AD7-273E152013E1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="296">
   <si>
     <t>https://github.com/algorithmzuo</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1003,17 +1003,224 @@
     <t>class 045</t>
   </si>
   <si>
-    <t>class 046</t>
+    <t>Hard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/corporate-flight-bookings/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeetCode 1109. 航班预订统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P4231</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LuoGu P4231 三步必杀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LuoGu P5026 Lycanthropy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P5026</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/range-sum-query-2d-immutable/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sum of one-dimentional prefix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sum of one-dimentional prefix     arithmetic progression</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>class 047</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class 048</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LuoGu 304. 二维区域和检索 - 矩阵不可变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sum of two-dimentional preifx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/largest-1-bordered-square/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeetCode 1139. 最大的以 1 为边界的正方形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.nowcoder.com/practice/50e1a93989df42efb0b1dec386fb4ccc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NowCoder【模板】二维差分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>two-dimensional difference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P3397</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LuoGu P3397 地毯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/stamping-the-grid/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeetCode 2132. 用邮票贴满网格图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>two-dimensional difference and sum of prefix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/sort-array-by-parity-ii/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeetCode 922. 按奇偶排序数组 II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Two-Pointer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class 050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/find-the-duplicate-number/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeetCode 287. 寻找重复数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/trapping-rain-water/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeetCode 42. 接雨水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/boats-to-save-people/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeetCode 881. 救生艇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/container-with-most-water/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeetCode 11. 盛最多水的容器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/heaters/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeetCode 475. 供暖器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/first-missing-positive/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeetCode 41. 缺失的第一个正数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/koko-eating-bananas/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeetCode 875. 爱吃香蕉的珂珂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary answer method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class 051</t>
+  </si>
+  <si>
+    <t>LeetCode 410. 分割数组的最大值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/split-array-largest-sum/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.nowcoder.com/practice/7037a3d57bbd4336856b8e16a9cafd71</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NowCoder 机器人跳跃问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/find-k-th-smallest-pair-distance/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeetCode 719. 找出第 K 小的数对距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeetCode 2141. 同时运行 N 台电脑的最长时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/maximum-running-time-of-n-computers/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class 052</t>
+  </si>
+  <si>
+    <t>class 053</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1069,8 +1276,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1080,6 +1296,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1101,7 +1323,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1135,6 +1357,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1157,13 +1385,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>520261</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>42042</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>1970690</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>135399</xdr:rowOff>
@@ -1538,1532 +1766,1901 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E82B7489-51ED-4191-97F8-2AA11E2CB4E2}">
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B71" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="62" customWidth="1"/>
-    <col min="4" max="4" width="76.21875" customWidth="1"/>
-    <col min="5" max="5" width="101.6640625" customWidth="1"/>
-    <col min="6" max="6" width="35.21875" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="62" customWidth="1"/>
+    <col min="5" max="5" width="76.21875" customWidth="1"/>
+    <col min="6" max="6" width="101.6640625" customWidth="1"/>
+    <col min="7" max="7" width="35.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>203</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="6">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="6">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="6">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="6">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="6">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>77</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="6">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="6">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="E21" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="6">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="6">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="6">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="6">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>69</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="6">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="6">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="D27" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="E27" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="6">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="D28" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>78</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="6">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>81</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="6">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>82</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="6">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>85</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="6">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="D32" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>89</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="6">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="D33" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>92</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="6">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="D34" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>93</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="6">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>95</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="6">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="D36" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>98</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="6">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>104</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="D37" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>99</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="6">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="6">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>103</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="D38" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>102</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="F38" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="6">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="6">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>108</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="D39" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>107</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="6">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="6">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>108</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="D40" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>111</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="6">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="6">
         <v>39</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>108</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="D41" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>113</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="6">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="6">
         <v>40</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>108</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="D42" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>119</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="6">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="6">
         <v>41</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>108</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="D43" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>121</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="F43" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="6">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="6">
         <v>42</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>108</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="D44" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>124</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="6">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="6">
         <v>43</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>129</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="D45" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>127</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="F45" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="6">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="6">
         <v>44</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>129</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="D46" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>132</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="6">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="6">
         <v>45</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>129</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="D47" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>134</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="F47" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="6">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="6">
         <v>46</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>129</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="D48" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>135</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="F48" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="6">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="6">
         <v>47</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>129</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="D49" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>139</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="F49" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="6">
+    <row r="50" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="6">
         <v>48</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>129</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="D50" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>142</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="F50" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="6">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="6">
         <v>49</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>129</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="D51" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>144</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="F51" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="6">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="6">
         <v>50</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>147</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="D52" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>40</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="F52" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="6">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="6">
         <v>51</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>147</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="D53" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>148</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="F53" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="6">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="6">
         <v>52</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>147</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="D54" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>150</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="F54" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="6">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="6">
         <v>53</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>147</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="D55" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>153</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="F55" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="6">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="6">
         <v>54</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>147</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="D56" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>154</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="F56" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="6">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="6">
         <v>55</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>147</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="D57" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>157</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="F57" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="6">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="6">
         <v>56</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>147</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="D58" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>162</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="F58" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="6">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="6">
         <v>57</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>147</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="D59" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>165</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="F59" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="6">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60" s="6">
         <v>58</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>147</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="D60" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>167</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="F60" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="6">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="6">
         <v>59</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>175</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="D61" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>169</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="F61" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="6">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62" s="6">
         <v>60</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>175</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="D62" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>171</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="F62" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="6">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63" s="6">
         <v>61</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>176</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="D63" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>178</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="F63" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="6">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64" s="6">
         <v>62</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>176</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="D64" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>180</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="F64" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="6">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" s="6">
         <v>63</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>176</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="D65" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>184</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="F65" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="6">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66" s="6">
         <v>64</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>176</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="D66" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>186</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="F66" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="6">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67" s="6">
         <v>65</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>176</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="D67" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>189</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="F67" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="6">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B68" s="6">
         <v>66</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>204</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="D68" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>191</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="F68" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="6">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B69" s="6">
         <v>67</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>204</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="D69" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>194</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="F69" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="6">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B70" s="6">
         <v>68</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>204</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="D70" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>197</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="F70" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="6">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B71" s="6">
         <v>69</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>204</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="D71" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>198</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="F71" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="6">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B72" s="6">
         <v>70</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>204</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="D72" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>201</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="F72" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="6">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B73" s="6">
         <v>71</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>214</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="D73" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>206</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="F73" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="6">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B74" s="6">
         <v>72</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>214</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="D74" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>207</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="F74" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="6">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B75" s="6">
         <v>73</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>214</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="D75" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>210</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="F75" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="6">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B76" s="6">
         <v>74</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>215</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="D76" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>213</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="F76" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="6">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B77" s="6">
         <v>75</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>219</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="D77" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>217</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="F77" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="6">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B78" s="6">
         <v>76</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>223</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="D78" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="D78" s="8" t="s">
+      <c r="E78" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="F78" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="6">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B79" s="6">
         <v>77</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>223</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="D79" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="D79" s="8" t="s">
+      <c r="E79" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="F79" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="6">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B80" s="6">
         <v>78</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>223</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="D80" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="D80" s="8" t="s">
+      <c r="E80" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="F80" s="2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B81" s="6">
         <v>79</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>232</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="D81" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="D81" s="8" t="s">
+      <c r="E81" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="F81" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B82" s="6">
         <v>80</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>232</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="D82" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="D82" s="8" t="s">
+      <c r="E82" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="F82" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B83" s="6">
         <v>81</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>241</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="D83" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="D83" s="9" t="s">
+      <c r="E83" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="F83" s="2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B84" s="6">
         <v>82</v>
       </c>
-      <c r="B84" t="s">
-        <v>242</v>
-      </c>
-      <c r="C84" s="4" t="s">
+      <c r="C84" t="s">
+        <v>241</v>
+      </c>
+      <c r="D84" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="D84" s="10" t="s">
+      <c r="E84" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="F84" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="11"/>
+      <c r="B85" s="6">
         <v>83</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
+        <v>241</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B86" s="6">
+        <v>84</v>
+      </c>
+      <c r="C86" t="s">
+        <v>252</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="E86" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="F86" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C85" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="D85" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>239</v>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B87" s="6">
+        <v>85</v>
+      </c>
+      <c r="C87" t="s">
+        <v>252</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B88" s="6">
+        <v>86</v>
+      </c>
+      <c r="C88" t="s">
+        <v>252</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B89" s="6">
+        <v>87</v>
+      </c>
+      <c r="C89" t="s">
+        <v>253</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E89" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B90" s="6">
+        <v>88</v>
+      </c>
+      <c r="C90" t="s">
+        <v>253</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B91" s="6">
+        <v>89</v>
+      </c>
+      <c r="C91" t="s">
+        <v>253</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E91" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B92" s="6">
+        <v>90</v>
+      </c>
+      <c r="C92" t="s">
+        <v>253</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B93" s="6">
+        <v>91</v>
+      </c>
+      <c r="C93" t="s">
+        <v>253</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E93" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B94" s="6">
+        <v>92</v>
+      </c>
+      <c r="C94" t="s">
+        <v>269</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E94" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B95" s="6">
+        <v>93</v>
+      </c>
+      <c r="C95" t="s">
+        <v>269</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B96" s="6">
+        <v>94</v>
+      </c>
+      <c r="C96" t="s">
+        <v>269</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E96" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B97" s="6">
+        <v>95</v>
+      </c>
+      <c r="C97" t="s">
+        <v>269</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E97" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B98" s="6">
+        <v>96</v>
+      </c>
+      <c r="C98" t="s">
+        <v>269</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E98" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B99" s="6">
+        <v>97</v>
+      </c>
+      <c r="C99" t="s">
+        <v>269</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B100" s="6">
+        <v>98</v>
+      </c>
+      <c r="C100" t="s">
+        <v>269</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E100" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B101" s="6">
+        <v>99</v>
+      </c>
+      <c r="C101" t="s">
+        <v>285</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E101" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="11"/>
+      <c r="B102" s="6">
+        <v>100</v>
+      </c>
+      <c r="C102" t="s">
+        <v>285</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E102" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B103" s="6">
+        <v>101</v>
+      </c>
+      <c r="C103" t="s">
+        <v>285</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E103" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B104" s="6">
+        <v>102</v>
+      </c>
+      <c r="C104" t="s">
+        <v>294</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E104" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B105" s="6">
+        <v>103</v>
+      </c>
+      <c r="C105" t="s">
+        <v>295</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E105" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{BACE61A7-1194-4B2B-9B71-8C518397F20D}"/>
-    <hyperlink ref="E10" r:id="rId2" xr:uid="{ECEF2F39-3A9D-415E-9C48-A89506B03D2D}"/>
-    <hyperlink ref="E11" r:id="rId3" xr:uid="{E34868E5-6842-490A-9DE0-9B6CBC000B97}"/>
-    <hyperlink ref="E12" r:id="rId4" xr:uid="{90112452-C42D-4C26-A4BC-A4579AFE712A}"/>
-    <hyperlink ref="E13" r:id="rId5" xr:uid="{4093CD7B-78EB-4436-A2ED-68E8C3962773}"/>
-    <hyperlink ref="E14" r:id="rId6" xr:uid="{AD4C3E05-C40B-482F-9201-795A2A71AC41}"/>
-    <hyperlink ref="E15" r:id="rId7" xr:uid="{70CC152E-1393-413A-9215-31976490AFF3}"/>
-    <hyperlink ref="E16" r:id="rId8" xr:uid="{A579D891-6F23-49DD-AACA-F8460102AFA5}"/>
-    <hyperlink ref="E17" r:id="rId9" xr:uid="{ADBA6841-70B0-41C1-AB4F-91056717B6AC}"/>
-    <hyperlink ref="E18" r:id="rId10" xr:uid="{289EF396-63C7-4A33-BB10-83920103D511}"/>
-    <hyperlink ref="E19" r:id="rId11" xr:uid="{D0D1AB20-FE0B-4CD7-9BFC-9D73645A0527}"/>
-    <hyperlink ref="E20" r:id="rId12" xr:uid="{7B6F3A62-ADAF-4E2D-A72E-2DE834C14A6C}"/>
-    <hyperlink ref="E22" r:id="rId13" xr:uid="{26347AB2-6B16-42DF-B049-C8850A79C9C1}"/>
-    <hyperlink ref="E21" r:id="rId14" xr:uid="{EC3CD58A-1D35-4DA1-8844-2DDCDA6884E5}"/>
-    <hyperlink ref="E23" r:id="rId15" xr:uid="{B96DF0A5-AE6A-4B90-AD21-B04F482C2372}"/>
-    <hyperlink ref="E3" r:id="rId16" xr:uid="{C5B90A94-A036-4D90-96ED-718AE54072B0}"/>
-    <hyperlink ref="E24" r:id="rId17" xr:uid="{7A8B6602-53E8-4430-A1D8-0F853AF924AA}"/>
-    <hyperlink ref="E25" r:id="rId18" xr:uid="{E615AE3F-EDB1-4ABE-A15C-BD39F53D05C3}"/>
-    <hyperlink ref="E26" r:id="rId19" xr:uid="{9175D99F-FD99-4CEB-B60C-6CB1D6B1D4C0}"/>
-    <hyperlink ref="E27" r:id="rId20" xr:uid="{600F6046-5143-4343-A1BC-49ED4394AA1D}"/>
-    <hyperlink ref="E28" r:id="rId21" xr:uid="{91ED0DDB-8026-43B1-92B5-5B68058474D8}"/>
-    <hyperlink ref="E29" r:id="rId22" xr:uid="{F5341256-506C-4E9C-BB47-8DAC8175C8DC}"/>
-    <hyperlink ref="E30" r:id="rId23" xr:uid="{3E6AC961-8DFB-4AB3-AD10-FAFC7D9825F5}"/>
-    <hyperlink ref="E31" r:id="rId24" xr:uid="{8DD19721-4D57-486D-92E5-B6BED0C045E4}"/>
-    <hyperlink ref="E32" r:id="rId25" xr:uid="{A4122E62-60AE-4C1C-A5AE-78750DAFED05}"/>
-    <hyperlink ref="E33" r:id="rId26" xr:uid="{4A47D1E3-8E12-4604-978C-FC802E450E1A}"/>
-    <hyperlink ref="E34" r:id="rId27" xr:uid="{17F101BD-4903-4C67-B295-59E3B2ACB705}"/>
-    <hyperlink ref="E35" r:id="rId28" xr:uid="{5EA8D634-D180-4804-B8D4-AC2AF53B36BA}"/>
-    <hyperlink ref="E36" r:id="rId29" xr:uid="{ABA9E4A9-9A68-4664-BD56-73B59075A5BE}"/>
-    <hyperlink ref="E37" r:id="rId30" xr:uid="{5D051A30-B2B4-4F57-99CB-4418A9D7ED86}"/>
-    <hyperlink ref="E38" r:id="rId31" xr:uid="{17CEAAD7-6AB6-4277-A795-B1338DE4B916}"/>
-    <hyperlink ref="E39" r:id="rId32" xr:uid="{33A809BC-2786-4BA1-9278-A71FF35BA690}"/>
-    <hyperlink ref="E40" r:id="rId33" xr:uid="{5512D9EC-AD6C-47AB-A116-4306F7DEA0C2}"/>
-    <hyperlink ref="E41" r:id="rId34" xr:uid="{1541E3AC-3AF7-43DD-B877-5C18E2A99799}"/>
-    <hyperlink ref="E42" r:id="rId35" xr:uid="{FE341157-272A-4FAC-B179-18B7FF25B9D5}"/>
-    <hyperlink ref="E43" r:id="rId36" xr:uid="{BC0D7D4F-0082-43B4-B396-D3117DB2775B}"/>
-    <hyperlink ref="E44" r:id="rId37" xr:uid="{73DE3A0C-A12F-45E2-9A92-63314071062D}"/>
-    <hyperlink ref="E45" r:id="rId38" xr:uid="{D2E1064D-54E2-4A68-AEF7-E008B71213C0}"/>
-    <hyperlink ref="E46" r:id="rId39" xr:uid="{6C8B3A2D-29A3-4AB8-9549-91D69403D36A}"/>
-    <hyperlink ref="E47" r:id="rId40" xr:uid="{0DEFFDF5-BA74-421A-80EF-46EEFD912FA2}"/>
-    <hyperlink ref="E6" r:id="rId41" xr:uid="{1CFE16CD-BEC6-4711-9340-2F0A40F1D5BA}"/>
-    <hyperlink ref="E48" r:id="rId42" xr:uid="{877B036D-0A8F-48FD-8A10-B39FB8051143}"/>
-    <hyperlink ref="E49" r:id="rId43" xr:uid="{0B317B7E-B211-4C7A-9BFF-5B40B09225F8}"/>
-    <hyperlink ref="E50" r:id="rId44" xr:uid="{22AE3C8C-A56F-4F41-9A00-29A79D89D6DF}"/>
-    <hyperlink ref="E51" r:id="rId45" xr:uid="{00288A03-DF66-4285-9B67-3D6A7068AA05}"/>
-    <hyperlink ref="E52" r:id="rId46" xr:uid="{E31310B0-1608-47C1-BEF8-A6FF34C9302F}"/>
-    <hyperlink ref="E9" r:id="rId47" xr:uid="{CC113499-2C8B-4554-B26E-9470CC49B120}"/>
-    <hyperlink ref="E53" r:id="rId48" xr:uid="{65A2CAA8-6BC2-499E-B9B2-7788E5E69BF9}"/>
-    <hyperlink ref="E54" r:id="rId49" xr:uid="{30972633-5AFE-4ACD-8070-82820D9789B8}"/>
-    <hyperlink ref="E55" r:id="rId50" xr:uid="{402203C0-4D4D-4669-A54F-EDCD747AE72E}"/>
-    <hyperlink ref="E56" r:id="rId51" xr:uid="{F0149461-D13C-437E-8973-D902F0072399}"/>
-    <hyperlink ref="E57" r:id="rId52" xr:uid="{C1E61F71-D0F4-4B14-B164-E4EE4D50DD8E}"/>
-    <hyperlink ref="E58" r:id="rId53" xr:uid="{6069C5C0-DFFE-4A24-8B0E-11EACD57B0AB}"/>
-    <hyperlink ref="E59" r:id="rId54" xr:uid="{4EE80E98-362D-4975-970E-EBD0F2E085D7}"/>
-    <hyperlink ref="E60" r:id="rId55" xr:uid="{54A0EEEF-963F-49FF-9CFD-0D4D8BBA4F19}"/>
-    <hyperlink ref="E61" r:id="rId56" xr:uid="{A74DF08E-731B-4E88-81C5-0A167E7F0E74}"/>
-    <hyperlink ref="E62" r:id="rId57" xr:uid="{D63A44CE-C286-46CE-A1EC-11DB1A8C06F5}"/>
-    <hyperlink ref="E63" r:id="rId58" xr:uid="{4275F949-660E-4BCD-9EB2-717BAC6EC346}"/>
-    <hyperlink ref="E64" r:id="rId59" xr:uid="{B39CC932-FED6-4236-9DEB-349A97E17CBF}"/>
-    <hyperlink ref="E65" r:id="rId60" xr:uid="{367E3F79-C37C-4AB3-8CF0-261532ECCEFE}"/>
-    <hyperlink ref="E66" r:id="rId61" xr:uid="{A87BB360-20BD-4C30-A9BC-81A1A679FD84}"/>
-    <hyperlink ref="E67" r:id="rId62" xr:uid="{F707ABCB-90AA-4332-AEA4-18F46DE19909}"/>
-    <hyperlink ref="E68" r:id="rId63" xr:uid="{73C9D913-178B-4CA8-AB2F-BA9618951C7A}"/>
-    <hyperlink ref="E69" r:id="rId64" xr:uid="{3D01E35D-7684-42CB-8596-439D7523758B}"/>
-    <hyperlink ref="E71" r:id="rId65" xr:uid="{FA2A8B4C-077E-4FD2-8BEF-791A0BCC4774}"/>
-    <hyperlink ref="E70" r:id="rId66" xr:uid="{588FA143-1143-4E79-AF82-B4C5A2FC6A8C}"/>
-    <hyperlink ref="E72" r:id="rId67" xr:uid="{9B054053-D33A-4591-9D4A-9FAAA518DCF2}"/>
-    <hyperlink ref="E73" r:id="rId68" xr:uid="{B3D6CDA5-0AF4-4E09-8DC2-334C1F3FF4E4}"/>
-    <hyperlink ref="E74" r:id="rId69" xr:uid="{974D7430-160D-4D16-8615-F5551E936575}"/>
-    <hyperlink ref="E75" r:id="rId70" xr:uid="{8DBD4772-FB91-43BA-B5F0-9264FCC94724}"/>
-    <hyperlink ref="E76" r:id="rId71" xr:uid="{F07C7424-8265-40EE-A111-08C6FD82B950}"/>
-    <hyperlink ref="E77" r:id="rId72" xr:uid="{98E972FF-35EA-43D1-916A-88BFE287C621}"/>
-    <hyperlink ref="E78" r:id="rId73" xr:uid="{A8D7F638-48F3-4B65-8711-DB6BAE0F5EF5}"/>
-    <hyperlink ref="E79" r:id="rId74" xr:uid="{74C50BB5-E7A8-42C3-BC48-6FAF4DB8EDF2}"/>
-    <hyperlink ref="E80" r:id="rId75" xr:uid="{87936A91-08D0-4747-BAC2-B3B3C2518B2D}"/>
-    <hyperlink ref="E81" r:id="rId76" xr:uid="{F0626FDA-41D3-46B1-A512-B4AD430B71DE}"/>
-    <hyperlink ref="E82" r:id="rId77" xr:uid="{405662C4-8E7F-4DB9-8F11-EF7A9B33440D}"/>
-    <hyperlink ref="E83" r:id="rId78" xr:uid="{7ED92564-B518-4D13-8C94-B6934A839024}"/>
-    <hyperlink ref="D83" r:id="rId79" display="https://www.nowcoder.com/practice/c552d3b4dfda49ccb883a6371d9a6932" xr:uid="{39A89C23-5392-426F-BF0B-28CBCA4F3D40}"/>
-    <hyperlink ref="E84" r:id="rId80" xr:uid="{557367C1-AF0D-4037-B378-6EACAFCD1F63}"/>
-    <hyperlink ref="E85" r:id="rId81" xr:uid="{EB3F6902-5E01-43E3-9377-94B2A946F7BC}"/>
+    <hyperlink ref="F10" r:id="rId1" xr:uid="{ECEF2F39-3A9D-415E-9C48-A89506B03D2D}"/>
+    <hyperlink ref="F11" r:id="rId2" xr:uid="{E34868E5-6842-490A-9DE0-9B6CBC000B97}"/>
+    <hyperlink ref="F12" r:id="rId3" xr:uid="{90112452-C42D-4C26-A4BC-A4579AFE712A}"/>
+    <hyperlink ref="F13" r:id="rId4" xr:uid="{4093CD7B-78EB-4436-A2ED-68E8C3962773}"/>
+    <hyperlink ref="F14" r:id="rId5" xr:uid="{AD4C3E05-C40B-482F-9201-795A2A71AC41}"/>
+    <hyperlink ref="F15" r:id="rId6" xr:uid="{70CC152E-1393-413A-9215-31976490AFF3}"/>
+    <hyperlink ref="F16" r:id="rId7" xr:uid="{A579D891-6F23-49DD-AACA-F8460102AFA5}"/>
+    <hyperlink ref="F17" r:id="rId8" xr:uid="{ADBA6841-70B0-41C1-AB4F-91056717B6AC}"/>
+    <hyperlink ref="F18" r:id="rId9" xr:uid="{289EF396-63C7-4A33-BB10-83920103D511}"/>
+    <hyperlink ref="F19" r:id="rId10" xr:uid="{D0D1AB20-FE0B-4CD7-9BFC-9D73645A0527}"/>
+    <hyperlink ref="F20" r:id="rId11" xr:uid="{7B6F3A62-ADAF-4E2D-A72E-2DE834C14A6C}"/>
+    <hyperlink ref="F22" r:id="rId12" xr:uid="{26347AB2-6B16-42DF-B049-C8850A79C9C1}"/>
+    <hyperlink ref="F21" r:id="rId13" xr:uid="{EC3CD58A-1D35-4DA1-8844-2DDCDA6884E5}"/>
+    <hyperlink ref="F23" r:id="rId14" xr:uid="{B96DF0A5-AE6A-4B90-AD21-B04F482C2372}"/>
+    <hyperlink ref="F3" r:id="rId15" xr:uid="{C5B90A94-A036-4D90-96ED-718AE54072B0}"/>
+    <hyperlink ref="F24" r:id="rId16" xr:uid="{7A8B6602-53E8-4430-A1D8-0F853AF924AA}"/>
+    <hyperlink ref="F25" r:id="rId17" xr:uid="{E615AE3F-EDB1-4ABE-A15C-BD39F53D05C3}"/>
+    <hyperlink ref="F26" r:id="rId18" xr:uid="{9175D99F-FD99-4CEB-B60C-6CB1D6B1D4C0}"/>
+    <hyperlink ref="F27" r:id="rId19" xr:uid="{600F6046-5143-4343-A1BC-49ED4394AA1D}"/>
+    <hyperlink ref="F28" r:id="rId20" xr:uid="{91ED0DDB-8026-43B1-92B5-5B68058474D8}"/>
+    <hyperlink ref="F29" r:id="rId21" xr:uid="{F5341256-506C-4E9C-BB47-8DAC8175C8DC}"/>
+    <hyperlink ref="F30" r:id="rId22" xr:uid="{3E6AC961-8DFB-4AB3-AD10-FAFC7D9825F5}"/>
+    <hyperlink ref="F31" r:id="rId23" xr:uid="{8DD19721-4D57-486D-92E5-B6BED0C045E4}"/>
+    <hyperlink ref="F32" r:id="rId24" xr:uid="{A4122E62-60AE-4C1C-A5AE-78750DAFED05}"/>
+    <hyperlink ref="F33" r:id="rId25" xr:uid="{4A47D1E3-8E12-4604-978C-FC802E450E1A}"/>
+    <hyperlink ref="F34" r:id="rId26" xr:uid="{17F101BD-4903-4C67-B295-59E3B2ACB705}"/>
+    <hyperlink ref="F35" r:id="rId27" xr:uid="{5EA8D634-D180-4804-B8D4-AC2AF53B36BA}"/>
+    <hyperlink ref="F36" r:id="rId28" xr:uid="{ABA9E4A9-9A68-4664-BD56-73B59075A5BE}"/>
+    <hyperlink ref="F37" r:id="rId29" xr:uid="{5D051A30-B2B4-4F57-99CB-4418A9D7ED86}"/>
+    <hyperlink ref="F38" r:id="rId30" xr:uid="{17CEAAD7-6AB6-4277-A795-B1338DE4B916}"/>
+    <hyperlink ref="F39" r:id="rId31" xr:uid="{33A809BC-2786-4BA1-9278-A71FF35BA690}"/>
+    <hyperlink ref="F40" r:id="rId32" xr:uid="{5512D9EC-AD6C-47AB-A116-4306F7DEA0C2}"/>
+    <hyperlink ref="F41" r:id="rId33" xr:uid="{1541E3AC-3AF7-43DD-B877-5C18E2A99799}"/>
+    <hyperlink ref="F42" r:id="rId34" xr:uid="{FE341157-272A-4FAC-B179-18B7FF25B9D5}"/>
+    <hyperlink ref="F43" r:id="rId35" xr:uid="{BC0D7D4F-0082-43B4-B396-D3117DB2775B}"/>
+    <hyperlink ref="F44" r:id="rId36" xr:uid="{73DE3A0C-A12F-45E2-9A92-63314071062D}"/>
+    <hyperlink ref="F45" r:id="rId37" xr:uid="{D2E1064D-54E2-4A68-AEF7-E008B71213C0}"/>
+    <hyperlink ref="F46" r:id="rId38" xr:uid="{6C8B3A2D-29A3-4AB8-9549-91D69403D36A}"/>
+    <hyperlink ref="F47" r:id="rId39" xr:uid="{0DEFFDF5-BA74-421A-80EF-46EEFD912FA2}"/>
+    <hyperlink ref="F6" r:id="rId40" xr:uid="{1CFE16CD-BEC6-4711-9340-2F0A40F1D5BA}"/>
+    <hyperlink ref="F48" r:id="rId41" xr:uid="{877B036D-0A8F-48FD-8A10-B39FB8051143}"/>
+    <hyperlink ref="F49" r:id="rId42" xr:uid="{0B317B7E-B211-4C7A-9BFF-5B40B09225F8}"/>
+    <hyperlink ref="F50" r:id="rId43" xr:uid="{22AE3C8C-A56F-4F41-9A00-29A79D89D6DF}"/>
+    <hyperlink ref="F51" r:id="rId44" xr:uid="{00288A03-DF66-4285-9B67-3D6A7068AA05}"/>
+    <hyperlink ref="F52" r:id="rId45" xr:uid="{E31310B0-1608-47C1-BEF8-A6FF34C9302F}"/>
+    <hyperlink ref="F9" r:id="rId46" xr:uid="{CC113499-2C8B-4554-B26E-9470CC49B120}"/>
+    <hyperlink ref="F53" r:id="rId47" xr:uid="{65A2CAA8-6BC2-499E-B9B2-7788E5E69BF9}"/>
+    <hyperlink ref="F54" r:id="rId48" xr:uid="{30972633-5AFE-4ACD-8070-82820D9789B8}"/>
+    <hyperlink ref="F55" r:id="rId49" xr:uid="{402203C0-4D4D-4669-A54F-EDCD747AE72E}"/>
+    <hyperlink ref="F56" r:id="rId50" xr:uid="{F0149461-D13C-437E-8973-D902F0072399}"/>
+    <hyperlink ref="F57" r:id="rId51" xr:uid="{C1E61F71-D0F4-4B14-B164-E4EE4D50DD8E}"/>
+    <hyperlink ref="F58" r:id="rId52" xr:uid="{6069C5C0-DFFE-4A24-8B0E-11EACD57B0AB}"/>
+    <hyperlink ref="F59" r:id="rId53" xr:uid="{4EE80E98-362D-4975-970E-EBD0F2E085D7}"/>
+    <hyperlink ref="F60" r:id="rId54" xr:uid="{54A0EEEF-963F-49FF-9CFD-0D4D8BBA4F19}"/>
+    <hyperlink ref="F61" r:id="rId55" xr:uid="{A74DF08E-731B-4E88-81C5-0A167E7F0E74}"/>
+    <hyperlink ref="F62" r:id="rId56" xr:uid="{D63A44CE-C286-46CE-A1EC-11DB1A8C06F5}"/>
+    <hyperlink ref="F63" r:id="rId57" xr:uid="{4275F949-660E-4BCD-9EB2-717BAC6EC346}"/>
+    <hyperlink ref="F64" r:id="rId58" xr:uid="{B39CC932-FED6-4236-9DEB-349A97E17CBF}"/>
+    <hyperlink ref="F65" r:id="rId59" xr:uid="{367E3F79-C37C-4AB3-8CF0-261532ECCEFE}"/>
+    <hyperlink ref="F66" r:id="rId60" xr:uid="{A87BB360-20BD-4C30-A9BC-81A1A679FD84}"/>
+    <hyperlink ref="F67" r:id="rId61" xr:uid="{F707ABCB-90AA-4332-AEA4-18F46DE19909}"/>
+    <hyperlink ref="F68" r:id="rId62" xr:uid="{73C9D913-178B-4CA8-AB2F-BA9618951C7A}"/>
+    <hyperlink ref="F69" r:id="rId63" xr:uid="{3D01E35D-7684-42CB-8596-439D7523758B}"/>
+    <hyperlink ref="F71" r:id="rId64" xr:uid="{FA2A8B4C-077E-4FD2-8BEF-791A0BCC4774}"/>
+    <hyperlink ref="F70" r:id="rId65" xr:uid="{588FA143-1143-4E79-AF82-B4C5A2FC6A8C}"/>
+    <hyperlink ref="F72" r:id="rId66" xr:uid="{9B054053-D33A-4591-9D4A-9FAAA518DCF2}"/>
+    <hyperlink ref="F73" r:id="rId67" xr:uid="{B3D6CDA5-0AF4-4E09-8DC2-334C1F3FF4E4}"/>
+    <hyperlink ref="F74" r:id="rId68" xr:uid="{974D7430-160D-4D16-8615-F5551E936575}"/>
+    <hyperlink ref="F75" r:id="rId69" xr:uid="{8DBD4772-FB91-43BA-B5F0-9264FCC94724}"/>
+    <hyperlink ref="F76" r:id="rId70" xr:uid="{F07C7424-8265-40EE-A111-08C6FD82B950}"/>
+    <hyperlink ref="F77" r:id="rId71" xr:uid="{98E972FF-35EA-43D1-916A-88BFE287C621}"/>
+    <hyperlink ref="F78" r:id="rId72" xr:uid="{A8D7F638-48F3-4B65-8711-DB6BAE0F5EF5}"/>
+    <hyperlink ref="F79" r:id="rId73" xr:uid="{74C50BB5-E7A8-42C3-BC48-6FAF4DB8EDF2}"/>
+    <hyperlink ref="F80" r:id="rId74" xr:uid="{87936A91-08D0-4747-BAC2-B3B3C2518B2D}"/>
+    <hyperlink ref="F81" r:id="rId75" xr:uid="{F0626FDA-41D3-46B1-A512-B4AD430B71DE}"/>
+    <hyperlink ref="F82" r:id="rId76" xr:uid="{405662C4-8E7F-4DB9-8F11-EF7A9B33440D}"/>
+    <hyperlink ref="F83" r:id="rId77" xr:uid="{7ED92564-B518-4D13-8C94-B6934A839024}"/>
+    <hyperlink ref="E83" r:id="rId78" display="https://www.nowcoder.com/practice/c552d3b4dfda49ccb883a6371d9a6932" xr:uid="{39A89C23-5392-426F-BF0B-28CBCA4F3D40}"/>
+    <hyperlink ref="F84" r:id="rId79" xr:uid="{557367C1-AF0D-4037-B378-6EACAFCD1F63}"/>
+    <hyperlink ref="F85" r:id="rId80" xr:uid="{EB3F6902-5E01-43E3-9377-94B2A946F7BC}"/>
+    <hyperlink ref="B2" r:id="rId81" xr:uid="{BACE61A7-1194-4B2B-9B71-8C518397F20D}"/>
+    <hyperlink ref="F86" r:id="rId82" xr:uid="{AB8409FF-004E-4CBC-9C5C-E6CD0BBE8315}"/>
+    <hyperlink ref="F87" r:id="rId83" xr:uid="{48E1EBDA-6F46-4D8C-AC89-039F9AF3C06D}"/>
+    <hyperlink ref="F88" r:id="rId84" xr:uid="{C8FB0087-B5AF-4B08-BDAA-0A7B9D865F85}"/>
+    <hyperlink ref="F89" r:id="rId85" xr:uid="{5D4095B5-CFBE-4348-8341-AB5CA8D11CBE}"/>
+    <hyperlink ref="F90" r:id="rId86" xr:uid="{C7FE953E-D4AD-4BD5-999A-7909391A354E}"/>
+    <hyperlink ref="F91" r:id="rId87" xr:uid="{2BC33DC1-B333-4FD8-95CA-8FD1D3B800C1}"/>
+    <hyperlink ref="F92" r:id="rId88" xr:uid="{9FCA992B-2699-4341-831A-0E916D92651E}"/>
+    <hyperlink ref="F93" r:id="rId89" xr:uid="{ED9F804B-1333-41F2-9A32-C5D847FED196}"/>
+    <hyperlink ref="F94" r:id="rId90" xr:uid="{646E93A1-3333-4D8C-A8AE-B5BF8B404955}"/>
+    <hyperlink ref="F95" r:id="rId91" xr:uid="{15A71A4E-2225-481F-BAC7-6EC096C9758C}"/>
+    <hyperlink ref="F96" r:id="rId92" xr:uid="{F7849DF9-F4E9-4373-82E6-2525B85FCD53}"/>
+    <hyperlink ref="F97" r:id="rId93" xr:uid="{92296D32-F1B5-472A-8367-55FD2294F83C}"/>
+    <hyperlink ref="F98" r:id="rId94" xr:uid="{F9F80D4C-A311-46A5-BA04-D08B5AFC51DA}"/>
+    <hyperlink ref="F99" r:id="rId95" xr:uid="{016D5D47-770E-4EAE-88E1-B39C0073C676}"/>
+    <hyperlink ref="E99" r:id="rId96" display="https://leetcode.cn/problems/heaters/" xr:uid="{6471F393-90E4-4A52-B7A3-E0C1AA9EF1DF}"/>
+    <hyperlink ref="F100" r:id="rId97" xr:uid="{80BD446B-3BB0-415F-8E5F-DCDDA1D5791C}"/>
+    <hyperlink ref="F101" r:id="rId98" xr:uid="{11DD4B07-035D-43BE-B6E9-103D77B42BDF}"/>
+    <hyperlink ref="F102" r:id="rId99" xr:uid="{64791B67-D0C8-4AD3-A7A7-57E9C006DCD7}"/>
+    <hyperlink ref="F5" r:id="rId100" xr:uid="{F2F188C1-E72C-4537-A26F-CA65A73ED31B}"/>
+    <hyperlink ref="F103" r:id="rId101" xr:uid="{49735561-E3CB-442C-A1E1-F23D84C61C16}"/>
+    <hyperlink ref="F104" r:id="rId102" xr:uid="{79C63A5C-E14A-451B-B4FF-8BCA2E9C6449}"/>
+    <hyperlink ref="F105" r:id="rId103" xr:uid="{5359CAF8-24B9-4726-ACE2-6CC56285B62C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId82"/>
-  <drawing r:id="rId83"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId104"/>
+  <drawing r:id="rId105"/>
 </worksheet>
 </file>
--- a/Topic List/LeetCode 题单.xlsx
+++ b/Topic List/LeetCode 题单.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\0.Computer learn\Algorithm\ZUO_Algorithm\Topic List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB757DB2-D1EA-4488-A932-C6A2759016CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C74CDD5-3DDE-4247-B5FF-9663486A2F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ACF4A174-AC8F-47FE-8AD7-273E152013E1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="308">
   <si>
     <t>https://github.com/algorithmzuo</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1210,17 +1210,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>class 052</t>
-  </si>
-  <si>
-    <t>class 053</t>
+    <t>等待服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砍杀 or 毒杀怪兽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/find-the-index-of-the-first-occurrence-in-a-string/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeetCode 28. 找出字符串中第一个匹配项的下标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeetCode 572. 另一棵树的子树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/subtree-of-another-tree/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LuoGu P4391 [BOI2009] Radio Transmission 无线传输</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P4391</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LuoGu P4824 [USACO15FEB] Censoring S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P4824</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeetCode 1367. 二叉树中的链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/linked-list-in-binary-tree/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1285,6 +1335,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1323,7 +1381,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1361,6 +1419,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1766,10 +1827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E82B7489-51ED-4191-97F8-2AA11E2CB4E2}">
-  <dimension ref="A1:F105"/>
+  <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D122" sqref="D122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3523,7 +3584,7 @@
         <v>102</v>
       </c>
       <c r="C104" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>284</v>
@@ -3540,7 +3601,7 @@
         <v>103</v>
       </c>
       <c r="C105" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>284</v>
@@ -3550,6 +3611,112 @@
       </c>
       <c r="F105" s="2" t="s">
         <v>293</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C106" t="s">
+        <v>285</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E106" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C107" t="s">
+        <v>285</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E107" s="10" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C112" t="s">
+        <v>299</v>
+      </c>
+      <c r="D112" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="E112" t="s">
+        <v>298</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="113" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C113" t="s">
+        <v>299</v>
+      </c>
+      <c r="D113" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="E113" t="s">
+        <v>300</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="114" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C114" t="s">
+        <v>299</v>
+      </c>
+      <c r="D114" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="E114" t="s">
+        <v>306</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="115" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C115" t="s">
+        <v>299</v>
+      </c>
+      <c r="D115" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="E115" t="s">
+        <v>302</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="116" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C116" t="s">
+        <v>299</v>
+      </c>
+      <c r="D116" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="E116" t="s">
+        <v>304</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="117" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C117" t="s">
+        <v>299</v>
+      </c>
+      <c r="D117" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="E117" t="s">
+        <v>306</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -3658,9 +3825,12 @@
     <hyperlink ref="F103" r:id="rId101" xr:uid="{49735561-E3CB-442C-A1E1-F23D84C61C16}"/>
     <hyperlink ref="F104" r:id="rId102" xr:uid="{79C63A5C-E14A-451B-B4FF-8BCA2E9C6449}"/>
     <hyperlink ref="F105" r:id="rId103" xr:uid="{5359CAF8-24B9-4726-ACE2-6CC56285B62C}"/>
+    <hyperlink ref="F112" r:id="rId104" xr:uid="{8855F39E-281F-4953-B3C3-407E24262EAF}"/>
+    <hyperlink ref="F113" r:id="rId105" xr:uid="{9626FEBA-3D66-4F0E-B937-D9152A298C78}"/>
+    <hyperlink ref="F115" r:id="rId106" xr:uid="{BFAC95EF-39C7-4F41-81DE-11379E5DDE9A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId104"/>
-  <drawing r:id="rId105"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId107"/>
+  <drawing r:id="rId108"/>
 </worksheet>
 </file>
--- a/Topic List/LeetCode 题单.xlsx
+++ b/Topic List/LeetCode 题单.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\0.Computer learn\Algorithm\ZUO_Algorithm\Topic List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C74CDD5-3DDE-4247-B5FF-9663486A2F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2177D58F-3DCB-476F-9CA5-391F3CABEBD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ACF4A174-AC8F-47FE-8AD7-273E152013E1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="310">
   <si>
     <t>https://github.com/algorithmzuo</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1263,6 +1263,14 @@
   </si>
   <si>
     <t>https://leetcode.cn/problems/linked-list-in-binary-tree/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/find-all-good-strings/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeetCode 1397. 找到所有好字符串</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1827,10 +1835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E82B7489-51ED-4191-97F8-2AA11E2CB4E2}">
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:F118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D122" sqref="D122"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E110" sqref="E110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3614,6 +3622,9 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B106" s="6">
+        <v>104</v>
+      </c>
       <c r="C106" t="s">
         <v>285</v>
       </c>
@@ -3625,6 +3636,9 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B107" s="6">
+        <v>105</v>
+      </c>
       <c r="C107" t="s">
         <v>285</v>
       </c>
@@ -3649,7 +3663,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="113" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C113" t="s">
         <v>299</v>
       </c>
@@ -3663,7 +3677,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="114" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C114" t="s">
         <v>299</v>
       </c>
@@ -3677,7 +3691,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="115" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C115" t="s">
         <v>299</v>
       </c>
@@ -3691,7 +3705,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="116" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C116" t="s">
         <v>299</v>
       </c>
@@ -3705,7 +3719,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="117" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C117" t="s">
         <v>299</v>
       </c>
@@ -3717,6 +3731,21 @@
       </c>
       <c r="F117" s="2" t="s">
         <v>307</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="11"/>
+      <c r="C118" t="s">
+        <v>299</v>
+      </c>
+      <c r="D118" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="E118" t="s">
+        <v>309</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -3828,9 +3857,10 @@
     <hyperlink ref="F112" r:id="rId104" xr:uid="{8855F39E-281F-4953-B3C3-407E24262EAF}"/>
     <hyperlink ref="F113" r:id="rId105" xr:uid="{9626FEBA-3D66-4F0E-B937-D9152A298C78}"/>
     <hyperlink ref="F115" r:id="rId106" xr:uid="{BFAC95EF-39C7-4F41-81DE-11379E5DDE9A}"/>
+    <hyperlink ref="F118" r:id="rId107" xr:uid="{84E1B954-CD63-4DCC-B95C-6E643023859A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId107"/>
-  <drawing r:id="rId108"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId108"/>
+  <drawing r:id="rId109"/>
 </worksheet>
 </file>
--- a/Topic List/LeetCode 题单.xlsx
+++ b/Topic List/LeetCode 题单.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\0.Computer learn\Algorithm\ZUO_Algorithm\Topic List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2177D58F-3DCB-476F-9CA5-391F3CABEBD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6955A6F5-54E2-4233-91B8-DF0BFA60869D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ACF4A174-AC8F-47FE-8AD7-273E152013E1}"/>
+    <workbookView minimized="1" xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{ACF4A174-AC8F-47FE-8AD7-273E152013E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="324">
   <si>
     <t>https://github.com/algorithmzuo</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1271,6 +1271,62 @@
   </si>
   <si>
     <t>LeetCode 1397. 找到所有好字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefix information</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeetCode 303. 区域和检索 - 数组不可变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/range-sum-query-immutable/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.nowcoder.com/practice/36fb0fd3c656480c92b569258a1223d5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NowCoder 未排序数组中累加和为给定值的最长子数组长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeetCode 560. 和为 K 的子数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/subarray-sum-equals-k/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.nowcoder.com/practice/545544c060804eceaed0bb84fcd992fb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NowCoder 未排序数组中累加和为给定值的最长子数组系列问题补1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeetCode 1124. 表现良好的最长时间段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/longest-well-performing-interval/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeetCode 1590. 使数组和能被 P 整除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/make-sum-divisible-by-p/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class 046</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1835,10 +1891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E82B7489-51ED-4191-97F8-2AA11E2CB4E2}">
-  <dimension ref="A1:F118"/>
+  <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E110" sqref="E110"/>
+    <sheetView tabSelected="1" topLeftCell="D114" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F121" sqref="F121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3746,6 +3802,87 @@
       </c>
       <c r="F118" s="2" t="s">
         <v>308</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C121" t="s">
+        <v>323</v>
+      </c>
+      <c r="D121" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="E121" t="s">
+        <v>311</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C122" t="s">
+        <v>323</v>
+      </c>
+      <c r="D122" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="E122" t="s">
+        <v>314</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C123" t="s">
+        <v>323</v>
+      </c>
+      <c r="D123" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="E123" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C124" t="s">
+        <v>323</v>
+      </c>
+      <c r="D124" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="E124" t="s">
+        <v>318</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C125" t="s">
+        <v>323</v>
+      </c>
+      <c r="D125" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="E125" t="s">
+        <v>319</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D126" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="E126" t="s">
+        <v>321</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -3858,9 +3995,16 @@
     <hyperlink ref="F113" r:id="rId105" xr:uid="{9626FEBA-3D66-4F0E-B937-D9152A298C78}"/>
     <hyperlink ref="F115" r:id="rId106" xr:uid="{BFAC95EF-39C7-4F41-81DE-11379E5DDE9A}"/>
     <hyperlink ref="F118" r:id="rId107" xr:uid="{84E1B954-CD63-4DCC-B95C-6E643023859A}"/>
+    <hyperlink ref="F126" r:id="rId108" xr:uid="{21B47BD8-1F57-4D34-81C9-A01808DB6669}"/>
+    <hyperlink ref="F125" r:id="rId109" xr:uid="{1804D0A5-CB1E-4A84-88B2-75171024268A}"/>
+    <hyperlink ref="F124" r:id="rId110" xr:uid="{FE595D0F-DC28-4FB3-9872-BC123995A5AB}"/>
+    <hyperlink ref="F121" r:id="rId111" xr:uid="{2B8B2EE3-7930-41F4-94EB-BAB77BD289FA}"/>
+    <hyperlink ref="F123" r:id="rId112" xr:uid="{2179D473-D01F-4C07-A7BB-119D1C76F243}"/>
+    <hyperlink ref="E123" r:id="rId113" display="https://leetcode.cn/problems/subarray-sum-equals-k/description/" xr:uid="{1895CB2A-383C-4216-B988-F9E2B94DB083}"/>
+    <hyperlink ref="F122" r:id="rId114" xr:uid="{4DE402C7-3E89-4F85-AB95-E1FD80E732CD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId108"/>
-  <drawing r:id="rId109"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId115"/>
+  <drawing r:id="rId116"/>
 </worksheet>
 </file>
--- a/Topic List/LeetCode 题单.xlsx
+++ b/Topic List/LeetCode 题单.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\0.Computer learn\Algorithm\ZUO_Algorithm\Topic List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6955A6F5-54E2-4233-91B8-DF0BFA60869D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFE1958-C482-4D0F-9C98-4ECF3F19DC47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{ACF4A174-AC8F-47FE-8AD7-273E152013E1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ACF4A174-AC8F-47FE-8AD7-273E152013E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="326">
   <si>
     <t>https://github.com/algorithmzuo</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1222,26 +1222,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://leetcode.cn/problems/find-the-index-of-the-first-occurrence-in-a-string/description/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LeetCode 28. 找出字符串中第一个匹配项的下标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>class100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LeetCode 572. 另一棵树的子树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode.cn/problems/subtree-of-another-tree/description/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LuoGu P4391 [BOI2009] Radio Transmission 无线传输</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1327,6 +1311,30 @@
   </si>
   <si>
     <t>class 046</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/find-the-longest-substring-containing-vowels-in-even-counts/submissions/524388573/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeetCode 1371. 每个元音包含偶数次的最长子字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1891,10 +1899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E82B7489-51ED-4191-97F8-2AA11E2CB4E2}">
-  <dimension ref="A1:F126"/>
+  <dimension ref="A1:F149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D114" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F121" sqref="F121"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E133" sqref="E133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3341,16 +3349,16 @@
         <v>84</v>
       </c>
       <c r="C86" t="s">
-        <v>252</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="E86" s="10" t="s">
-        <v>244</v>
+        <v>319</v>
+      </c>
+      <c r="D86" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="E86" t="s">
+        <v>307</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>243</v>
+        <v>308</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -3358,16 +3366,16 @@
         <v>85</v>
       </c>
       <c r="C87" t="s">
-        <v>252</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="E87" s="10" t="s">
-        <v>246</v>
+        <v>319</v>
+      </c>
+      <c r="D87" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="E87" t="s">
+        <v>310</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>245</v>
+        <v>309</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -3375,16 +3383,16 @@
         <v>86</v>
       </c>
       <c r="C88" t="s">
-        <v>252</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="E88" s="10" t="s">
-        <v>247</v>
+        <v>319</v>
+      </c>
+      <c r="D88" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>311</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>248</v>
+        <v>312</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -3392,16 +3400,16 @@
         <v>87</v>
       </c>
       <c r="C89" t="s">
-        <v>253</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="E89" s="10" t="s">
-        <v>254</v>
+        <v>319</v>
+      </c>
+      <c r="D89" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="E89" t="s">
+        <v>314</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>249</v>
+        <v>313</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -3409,16 +3417,16 @@
         <v>88</v>
       </c>
       <c r="C90" t="s">
-        <v>253</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="E90" s="10" t="s">
-        <v>257</v>
+        <v>319</v>
+      </c>
+      <c r="D90" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="E90" t="s">
+        <v>315</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>256</v>
+        <v>316</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3426,16 +3434,16 @@
         <v>89</v>
       </c>
       <c r="C91" t="s">
-        <v>253</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="E91" s="10" t="s">
-        <v>259</v>
+        <v>319</v>
+      </c>
+      <c r="D91" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="E91" t="s">
+        <v>317</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>258</v>
+        <v>318</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3443,16 +3451,16 @@
         <v>90</v>
       </c>
       <c r="C92" t="s">
-        <v>253</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="E92" s="10" t="s">
-        <v>262</v>
+        <v>319</v>
+      </c>
+      <c r="D92" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="E92" t="s">
+        <v>321</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>261</v>
+        <v>320</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3460,16 +3468,16 @@
         <v>91</v>
       </c>
       <c r="C93" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3477,16 +3485,16 @@
         <v>92</v>
       </c>
       <c r="C94" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3494,16 +3502,16 @@
         <v>93</v>
       </c>
       <c r="C95" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -3511,16 +3519,16 @@
         <v>94</v>
       </c>
       <c r="C96" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -3528,16 +3536,16 @@
         <v>95</v>
       </c>
       <c r="C97" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3545,16 +3553,16 @@
         <v>96</v>
       </c>
       <c r="C98" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3562,16 +3570,16 @@
         <v>97</v>
       </c>
       <c r="C99" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="E99" s="9" t="s">
-        <v>279</v>
+        <v>260</v>
+      </c>
+      <c r="E99" s="10" t="s">
+        <v>262</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3579,16 +3587,16 @@
         <v>98</v>
       </c>
       <c r="C100" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3596,34 +3604,33 @@
         <v>99</v>
       </c>
       <c r="C101" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="11"/>
       <c r="B102" s="6">
         <v>100</v>
       </c>
       <c r="C102" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3631,16 +3638,16 @@
         <v>101</v>
       </c>
       <c r="C103" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3648,16 +3655,16 @@
         <v>102</v>
       </c>
       <c r="C104" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="E104" s="10" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -3665,16 +3672,16 @@
         <v>103</v>
       </c>
       <c r="C105" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3682,13 +3689,16 @@
         <v>104</v>
       </c>
       <c r="C106" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="E106" s="10" t="s">
-        <v>294</v>
+        <v>268</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3696,194 +3706,348 @@
         <v>105</v>
       </c>
       <c r="C107" t="s">
+        <v>269</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E107" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B108" s="6">
+        <v>106</v>
+      </c>
+      <c r="C108" t="s">
         <v>285</v>
       </c>
-      <c r="D107" s="4" t="s">
+      <c r="D108" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="E107" s="10" t="s">
+      <c r="E108" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="11"/>
+      <c r="B109" s="6">
+        <v>107</v>
+      </c>
+      <c r="C109" t="s">
+        <v>285</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E109" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B110" s="6">
+        <v>108</v>
+      </c>
+      <c r="C110" t="s">
+        <v>285</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E110" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B111" s="6">
+        <v>109</v>
+      </c>
+      <c r="C111" t="s">
+        <v>285</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E111" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B112" s="6">
+        <v>110</v>
+      </c>
+      <c r="C112" t="s">
+        <v>285</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E112" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B113" s="6">
+        <v>111</v>
+      </c>
+      <c r="C113" t="s">
+        <v>285</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E113" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B114" s="6">
+        <v>112</v>
+      </c>
+      <c r="C114" t="s">
+        <v>285</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E114" s="10" t="s">
         <v>295</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C112" t="s">
-        <v>299</v>
-      </c>
-      <c r="D112" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="E112" t="s">
-        <v>298</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C113" t="s">
-        <v>299</v>
-      </c>
-      <c r="D113" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="E113" t="s">
-        <v>300</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C114" t="s">
-        <v>299</v>
-      </c>
-      <c r="D114" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="E114" t="s">
-        <v>306</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C115" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D115" s="13" t="s">
         <v>296</v>
       </c>
       <c r="E115" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C116" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D116" s="13" t="s">
         <v>296</v>
       </c>
       <c r="E116" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C117" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D117" s="13" t="s">
         <v>296</v>
       </c>
       <c r="E117" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="11"/>
       <c r="C118" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D118" s="13" t="s">
         <v>296</v>
       </c>
       <c r="E118" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C121" t="s">
-        <v>323</v>
-      </c>
-      <c r="D121" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="E121" t="s">
-        <v>311</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>312</v>
-      </c>
+      <c r="D121" s="13"/>
+      <c r="F121" s="2"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C122" t="s">
-        <v>323</v>
-      </c>
-      <c r="D122" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="E122" t="s">
-        <v>314</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>313</v>
-      </c>
+      <c r="D122" s="13"/>
+      <c r="F122" s="2"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C123" t="s">
-        <v>323</v>
-      </c>
-      <c r="D123" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="E123" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>316</v>
-      </c>
+      <c r="D123" s="13"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="2"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C124" t="s">
-        <v>323</v>
-      </c>
-      <c r="D124" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="E124" t="s">
-        <v>318</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>317</v>
-      </c>
+      <c r="D124" s="13"/>
+      <c r="F124" s="2"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C125" t="s">
-        <v>323</v>
-      </c>
-      <c r="D125" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="E125" t="s">
-        <v>319</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>320</v>
-      </c>
+      <c r="D125" s="13"/>
+      <c r="F125" s="2"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D126" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="E126" t="s">
-        <v>321</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>322</v>
-      </c>
+      <c r="D126" s="13"/>
+      <c r="F126" s="2"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D127" s="13"/>
+      <c r="F127" s="2"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B128" s="6"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="10"/>
+      <c r="F128" s="2"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B129" s="6"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="10"/>
+      <c r="F129" s="2"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B130" s="6"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="10"/>
+      <c r="F130" s="2"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B131" s="6"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="10"/>
+      <c r="F131" s="2"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B132" s="6"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="10"/>
+      <c r="F132" s="2"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B133" s="6"/>
+      <c r="D133" s="4"/>
+      <c r="E133" s="10"/>
+      <c r="F133" s="2"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B134" s="6"/>
+      <c r="D134" s="4"/>
+      <c r="E134" s="10"/>
+      <c r="F134" s="2"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B135" s="6"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="10"/>
+      <c r="F135" s="2"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B136" s="6"/>
+      <c r="D136" s="4"/>
+      <c r="E136" s="10"/>
+      <c r="F136" s="2"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B137" s="6"/>
+      <c r="D137" s="4"/>
+      <c r="E137" s="10"/>
+      <c r="F137" s="2"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B138" s="6"/>
+      <c r="D138" s="4"/>
+      <c r="E138" s="10"/>
+      <c r="F138" s="2"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B139" s="6"/>
+      <c r="D139" s="4"/>
+      <c r="E139" s="10"/>
+      <c r="F139" s="2"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B140" s="6"/>
+      <c r="D140" s="4"/>
+      <c r="E140" s="10"/>
+      <c r="F140" s="2"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B141" s="6"/>
+      <c r="D141" s="4"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="2"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B142" s="6"/>
+      <c r="D142" s="4"/>
+      <c r="E142" s="10"/>
+      <c r="F142" s="2"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B143" s="6"/>
+      <c r="D143" s="4"/>
+      <c r="E143" s="10"/>
+      <c r="F143" s="2"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="11"/>
+      <c r="B144" s="6"/>
+      <c r="D144" s="4"/>
+      <c r="E144" s="10"/>
+      <c r="F144" s="2"/>
+    </row>
+    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B145" s="6"/>
+      <c r="D145" s="4"/>
+      <c r="E145" s="10"/>
+      <c r="F145" s="2"/>
+    </row>
+    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B146" s="6"/>
+      <c r="D146" s="4"/>
+      <c r="E146" s="10"/>
+      <c r="F146" s="2"/>
+    </row>
+    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B147" s="6"/>
+      <c r="D147" s="4"/>
+      <c r="E147" s="10"/>
+      <c r="F147" s="2"/>
+    </row>
+    <row r="148" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B148" s="6"/>
+      <c r="D148" s="4"/>
+      <c r="E148" s="10"/>
+    </row>
+    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B149" s="6"/>
+      <c r="D149" s="4"/>
+      <c r="E149" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3969,42 +4133,41 @@
     <hyperlink ref="F84" r:id="rId79" xr:uid="{557367C1-AF0D-4037-B378-6EACAFCD1F63}"/>
     <hyperlink ref="F85" r:id="rId80" xr:uid="{EB3F6902-5E01-43E3-9377-94B2A946F7BC}"/>
     <hyperlink ref="B2" r:id="rId81" xr:uid="{BACE61A7-1194-4B2B-9B71-8C518397F20D}"/>
-    <hyperlink ref="F86" r:id="rId82" xr:uid="{AB8409FF-004E-4CBC-9C5C-E6CD0BBE8315}"/>
-    <hyperlink ref="F87" r:id="rId83" xr:uid="{48E1EBDA-6F46-4D8C-AC89-039F9AF3C06D}"/>
-    <hyperlink ref="F88" r:id="rId84" xr:uid="{C8FB0087-B5AF-4B08-BDAA-0A7B9D865F85}"/>
-    <hyperlink ref="F89" r:id="rId85" xr:uid="{5D4095B5-CFBE-4348-8341-AB5CA8D11CBE}"/>
-    <hyperlink ref="F90" r:id="rId86" xr:uid="{C7FE953E-D4AD-4BD5-999A-7909391A354E}"/>
-    <hyperlink ref="F91" r:id="rId87" xr:uid="{2BC33DC1-B333-4FD8-95CA-8FD1D3B800C1}"/>
-    <hyperlink ref="F92" r:id="rId88" xr:uid="{9FCA992B-2699-4341-831A-0E916D92651E}"/>
-    <hyperlink ref="F93" r:id="rId89" xr:uid="{ED9F804B-1333-41F2-9A32-C5D847FED196}"/>
-    <hyperlink ref="F94" r:id="rId90" xr:uid="{646E93A1-3333-4D8C-A8AE-B5BF8B404955}"/>
-    <hyperlink ref="F95" r:id="rId91" xr:uid="{15A71A4E-2225-481F-BAC7-6EC096C9758C}"/>
-    <hyperlink ref="F96" r:id="rId92" xr:uid="{F7849DF9-F4E9-4373-82E6-2525B85FCD53}"/>
-    <hyperlink ref="F97" r:id="rId93" xr:uid="{92296D32-F1B5-472A-8367-55FD2294F83C}"/>
-    <hyperlink ref="F98" r:id="rId94" xr:uid="{F9F80D4C-A311-46A5-BA04-D08B5AFC51DA}"/>
-    <hyperlink ref="F99" r:id="rId95" xr:uid="{016D5D47-770E-4EAE-88E1-B39C0073C676}"/>
-    <hyperlink ref="E99" r:id="rId96" display="https://leetcode.cn/problems/heaters/" xr:uid="{6471F393-90E4-4A52-B7A3-E0C1AA9EF1DF}"/>
-    <hyperlink ref="F100" r:id="rId97" xr:uid="{80BD446B-3BB0-415F-8E5F-DCDDA1D5791C}"/>
-    <hyperlink ref="F101" r:id="rId98" xr:uid="{11DD4B07-035D-43BE-B6E9-103D77B42BDF}"/>
-    <hyperlink ref="F102" r:id="rId99" xr:uid="{64791B67-D0C8-4AD3-A7A7-57E9C006DCD7}"/>
-    <hyperlink ref="F5" r:id="rId100" xr:uid="{F2F188C1-E72C-4537-A26F-CA65A73ED31B}"/>
-    <hyperlink ref="F103" r:id="rId101" xr:uid="{49735561-E3CB-442C-A1E1-F23D84C61C16}"/>
-    <hyperlink ref="F104" r:id="rId102" xr:uid="{79C63A5C-E14A-451B-B4FF-8BCA2E9C6449}"/>
-    <hyperlink ref="F105" r:id="rId103" xr:uid="{5359CAF8-24B9-4726-ACE2-6CC56285B62C}"/>
-    <hyperlink ref="F112" r:id="rId104" xr:uid="{8855F39E-281F-4953-B3C3-407E24262EAF}"/>
-    <hyperlink ref="F113" r:id="rId105" xr:uid="{9626FEBA-3D66-4F0E-B937-D9152A298C78}"/>
-    <hyperlink ref="F115" r:id="rId106" xr:uid="{BFAC95EF-39C7-4F41-81DE-11379E5DDE9A}"/>
-    <hyperlink ref="F118" r:id="rId107" xr:uid="{84E1B954-CD63-4DCC-B95C-6E643023859A}"/>
-    <hyperlink ref="F126" r:id="rId108" xr:uid="{21B47BD8-1F57-4D34-81C9-A01808DB6669}"/>
-    <hyperlink ref="F125" r:id="rId109" xr:uid="{1804D0A5-CB1E-4A84-88B2-75171024268A}"/>
-    <hyperlink ref="F124" r:id="rId110" xr:uid="{FE595D0F-DC28-4FB3-9872-BC123995A5AB}"/>
-    <hyperlink ref="F121" r:id="rId111" xr:uid="{2B8B2EE3-7930-41F4-94EB-BAB77BD289FA}"/>
-    <hyperlink ref="F123" r:id="rId112" xr:uid="{2179D473-D01F-4C07-A7BB-119D1C76F243}"/>
-    <hyperlink ref="E123" r:id="rId113" display="https://leetcode.cn/problems/subarray-sum-equals-k/description/" xr:uid="{1895CB2A-383C-4216-B988-F9E2B94DB083}"/>
-    <hyperlink ref="F122" r:id="rId114" xr:uid="{4DE402C7-3E89-4F85-AB95-E1FD80E732CD}"/>
+    <hyperlink ref="F5" r:id="rId82" xr:uid="{F2F188C1-E72C-4537-A26F-CA65A73ED31B}"/>
+    <hyperlink ref="F115" r:id="rId83" xr:uid="{BFAC95EF-39C7-4F41-81DE-11379E5DDE9A}"/>
+    <hyperlink ref="F118" r:id="rId84" xr:uid="{84E1B954-CD63-4DCC-B95C-6E643023859A}"/>
+    <hyperlink ref="F91" r:id="rId85" xr:uid="{426EF214-B27A-43DD-AA5E-AA594CD153F3}"/>
+    <hyperlink ref="F90" r:id="rId86" xr:uid="{1AF0D57F-16F2-427D-A1BD-DF58F2AB93B6}"/>
+    <hyperlink ref="F89" r:id="rId87" xr:uid="{612F9502-F860-4C94-B97A-69E770EE6BBA}"/>
+    <hyperlink ref="F86" r:id="rId88" xr:uid="{0D2200E7-AC6B-4F68-AF5E-AE972011E62F}"/>
+    <hyperlink ref="F88" r:id="rId89" xr:uid="{2C13003E-8BD4-4ADC-BEF7-ABE8D831D714}"/>
+    <hyperlink ref="E88" r:id="rId90" display="https://leetcode.cn/problems/subarray-sum-equals-k/description/" xr:uid="{24B4A9DD-ED4D-4F7C-B0DA-409AEADDD29B}"/>
+    <hyperlink ref="F87" r:id="rId91" xr:uid="{2651510D-B6E6-41DA-8A9C-FE6B7FAD16D3}"/>
+    <hyperlink ref="F92" r:id="rId92" xr:uid="{EE94B89E-F696-4801-AB2F-603C2DA524E7}"/>
+    <hyperlink ref="F93" r:id="rId93" xr:uid="{16CD166F-BE94-43BD-AD69-568EC718BAED}"/>
+    <hyperlink ref="F94" r:id="rId94" xr:uid="{ACBA76EA-BD33-4C5F-8C29-F340B5271C54}"/>
+    <hyperlink ref="F95" r:id="rId95" xr:uid="{FFE3BC39-1380-45F1-B65B-09532C231E03}"/>
+    <hyperlink ref="F96" r:id="rId96" xr:uid="{7E119B89-9B36-4902-88EC-3D58C1E004AF}"/>
+    <hyperlink ref="F97" r:id="rId97" xr:uid="{223096FD-DFE5-470A-9A2B-095D7A838C42}"/>
+    <hyperlink ref="F98" r:id="rId98" xr:uid="{E30B9125-72AA-4D5C-94FE-CC65B01FA814}"/>
+    <hyperlink ref="F99" r:id="rId99" xr:uid="{29E3316A-4C8A-487D-9E21-34FEB78273AE}"/>
+    <hyperlink ref="F100" r:id="rId100" xr:uid="{9004A66F-987A-48F8-847D-9A3E447F6C53}"/>
+    <hyperlink ref="F101" r:id="rId101" xr:uid="{5D17E6E7-3B12-4A1E-8C36-606747D6EFFB}"/>
+    <hyperlink ref="F102" r:id="rId102" xr:uid="{2AF7FCDA-57E9-4678-8D19-36BBCDFC71C4}"/>
+    <hyperlink ref="F103" r:id="rId103" xr:uid="{096C6AF2-26C5-453A-9767-746C78AF68AD}"/>
+    <hyperlink ref="F104" r:id="rId104" xr:uid="{DBEB1415-BE48-41C4-9F06-AA2734A7D85A}"/>
+    <hyperlink ref="F105" r:id="rId105" xr:uid="{93A57F15-41C2-412A-8C3E-BE1BD0CD9F54}"/>
+    <hyperlink ref="F106" r:id="rId106" xr:uid="{A0ED7B39-DFBA-442A-B1D3-1794FD80A629}"/>
+    <hyperlink ref="E106" r:id="rId107" display="https://leetcode.cn/problems/heaters/" xr:uid="{C607E3AE-13EF-4A4C-8AF9-95AB43527DE2}"/>
+    <hyperlink ref="F107" r:id="rId108" xr:uid="{8E00240F-27AF-404B-8B21-D414CFC2E719}"/>
+    <hyperlink ref="F108" r:id="rId109" xr:uid="{2BAD3C98-5E69-4350-9F8C-F9FC09934E8F}"/>
+    <hyperlink ref="F109" r:id="rId110" xr:uid="{A58F145C-9005-4442-9914-6D120C7AF1A5}"/>
+    <hyperlink ref="F110" r:id="rId111" xr:uid="{DA468345-5960-4DA7-91E5-609D2AEF95E9}"/>
+    <hyperlink ref="F111" r:id="rId112" xr:uid="{031F66C9-96CF-40AF-85E8-C445CBC873A6}"/>
+    <hyperlink ref="F112" r:id="rId113" xr:uid="{3128A4ED-ADED-47EA-A97D-E80E2730CAC1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId115"/>
-  <drawing r:id="rId116"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId114"/>
+  <drawing r:id="rId115"/>
 </worksheet>
 </file>
--- a/Topic List/LeetCode 题单.xlsx
+++ b/Topic List/LeetCode 题单.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\0.Computer learn\Algorithm\ZUO_Algorithm\Topic List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFE1958-C482-4D0F-9C98-4ECF3F19DC47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF55C3F-1D1D-4A51-923A-AAD50E256655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ACF4A174-AC8F-47FE-8AD7-273E152013E1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="334">
   <si>
     <t>https://github.com/algorithmzuo</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1322,19 +1322,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>求和</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平均值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇总</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计数</t>
+    <t>class 049</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sliding window</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeetCode 209. 长度最小的子数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/minimum-size-subarray-sum/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeetCode 3. 无重复字符的最长子串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/longest-substring-without-repeating-characters/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeetCode 76. 最小覆盖子串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/minimum-window-substring/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/gas-station/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeetCode 134. 加油站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/replace-the-substring-for-balanced-string/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeetCode 1234. 替换子串得到平衡字符串</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1899,10 +1931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E82B7489-51ED-4191-97F8-2AA11E2CB4E2}">
-  <dimension ref="A1:F149"/>
+  <dimension ref="A1:F211"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E133" sqref="E133"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3604,450 +3636,451 @@
         <v>99</v>
       </c>
       <c r="C101" t="s">
-        <v>269</v>
+        <v>322</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>268</v>
+        <v>323</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>267</v>
+        <v>324</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>266</v>
+        <v>325</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B102" s="6">
-        <v>100</v>
-      </c>
       <c r="C102" t="s">
-        <v>269</v>
+        <v>322</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>268</v>
+        <v>323</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>271</v>
+        <v>326</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>270</v>
+        <v>327</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B103" s="6">
-        <v>101</v>
-      </c>
       <c r="C103" t="s">
-        <v>269</v>
+        <v>322</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>268</v>
+        <v>323</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>273</v>
+        <v>328</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>272</v>
+        <v>329</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B104" s="6">
-        <v>102</v>
-      </c>
-      <c r="C104" t="s">
-        <v>269</v>
-      </c>
       <c r="D104" s="4" t="s">
-        <v>268</v>
+        <v>323</v>
       </c>
       <c r="E104" s="10" t="s">
-        <v>275</v>
+        <v>331</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>274</v>
+        <v>330</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B105" s="6">
-        <v>103</v>
-      </c>
-      <c r="C105" t="s">
-        <v>269</v>
-      </c>
+      <c r="A105" s="11"/>
       <c r="D105" s="4" t="s">
-        <v>268</v>
+        <v>323</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>277</v>
+        <v>333</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>276</v>
+        <v>332</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B106" s="6">
-        <v>104</v>
-      </c>
-      <c r="C106" t="s">
-        <v>269</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="E106" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>278</v>
-      </c>
+      <c r="E106" s="9"/>
+      <c r="F106" s="2"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B107" s="6">
-        <v>105</v>
-      </c>
-      <c r="C107" t="s">
-        <v>269</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="E107" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>280</v>
-      </c>
+      <c r="E107" s="10"/>
+      <c r="F107" s="2"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B108" s="6">
-        <v>106</v>
-      </c>
-      <c r="C108" t="s">
-        <v>285</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="E108" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>282</v>
-      </c>
+      <c r="E108" s="10"/>
+      <c r="F108" s="2"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="11"/>
-      <c r="B109" s="6">
-        <v>107</v>
-      </c>
-      <c r="C109" t="s">
-        <v>285</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="E109" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>287</v>
-      </c>
+      <c r="B109" s="6"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="2"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B110" s="6">
-        <v>108</v>
-      </c>
-      <c r="C110" t="s">
-        <v>285</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="E110" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>288</v>
-      </c>
+      <c r="B110" s="6"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="2"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B111" s="6">
-        <v>109</v>
-      </c>
-      <c r="C111" t="s">
-        <v>285</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="E111" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>290</v>
-      </c>
+      <c r="B111" s="6"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="2"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B112" s="6">
-        <v>110</v>
-      </c>
-      <c r="C112" t="s">
-        <v>285</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="E112" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B113" s="6">
-        <v>111</v>
-      </c>
-      <c r="C113" t="s">
-        <v>285</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="E113" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B114" s="6">
-        <v>112</v>
-      </c>
-      <c r="C114" t="s">
-        <v>285</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="E114" s="10" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C115" t="s">
-        <v>297</v>
-      </c>
-      <c r="D115" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="E115" t="s">
-        <v>298</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C116" t="s">
-        <v>297</v>
-      </c>
-      <c r="D116" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="E116" t="s">
-        <v>300</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C117" t="s">
-        <v>297</v>
-      </c>
-      <c r="D117" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="E117" t="s">
-        <v>302</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="11"/>
-      <c r="C118" t="s">
-        <v>297</v>
-      </c>
-      <c r="D118" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="E118" t="s">
-        <v>305</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D121" s="13"/>
+      <c r="B112" s="6"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="2"/>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B113" s="6"/>
+      <c r="E113" s="10"/>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B114" s="6"/>
+      <c r="E114" s="10"/>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B115" s="6"/>
+      <c r="F115" s="2"/>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B116" s="6"/>
+      <c r="F116" s="2"/>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B117" s="6"/>
+      <c r="F117" s="2"/>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B118" s="6"/>
+      <c r="F118" s="2"/>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B119" s="6"/>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B120" s="6"/>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B121" s="6"/>
       <c r="F121" s="2"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D122" s="13"/>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B122" s="6"/>
       <c r="F122" s="2"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D123" s="13"/>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B123" s="6"/>
       <c r="E123" s="9"/>
       <c r="F123" s="2"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D124" s="13"/>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B124" s="6"/>
       <c r="F124" s="2"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D125" s="13"/>
+    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B125" s="6"/>
       <c r="F125" s="2"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D126" s="13"/>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F126" s="2"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D127" s="13"/>
-      <c r="F127" s="2"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B128" s="6"/>
-      <c r="D128" s="4"/>
-      <c r="E128" s="10"/>
-      <c r="F128" s="2"/>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C127" t="s">
+        <v>269</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E127" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C128" t="s">
+        <v>269</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E128" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B129" s="6"/>
-      <c r="D129" s="4"/>
-      <c r="E129" s="10"/>
-      <c r="F129" s="2"/>
+      <c r="C129" t="s">
+        <v>269</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E129" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B130" s="6"/>
-      <c r="D130" s="4"/>
-      <c r="E130" s="10"/>
-      <c r="F130" s="2"/>
+      <c r="C130" t="s">
+        <v>269</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E130" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B131" s="6"/>
-      <c r="D131" s="4"/>
-      <c r="E131" s="10"/>
-      <c r="F131" s="2"/>
+      <c r="C131" t="s">
+        <v>269</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E131" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B132" s="6"/>
-      <c r="D132" s="4"/>
-      <c r="E132" s="10"/>
-      <c r="F132" s="2"/>
+      <c r="C132" t="s">
+        <v>269</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E132" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B133" s="6"/>
-      <c r="D133" s="4"/>
-      <c r="E133" s="10"/>
-      <c r="F133" s="2"/>
+      <c r="C133" t="s">
+        <v>269</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E133" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B134" s="6"/>
-      <c r="D134" s="4"/>
-      <c r="E134" s="10"/>
-      <c r="F134" s="2"/>
+      <c r="C134" t="s">
+        <v>285</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E134" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="11"/>
       <c r="B135" s="6"/>
-      <c r="D135" s="4"/>
-      <c r="E135" s="10"/>
-      <c r="F135" s="2"/>
+      <c r="C135" t="s">
+        <v>285</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E135" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B136" s="6"/>
-      <c r="D136" s="4"/>
-      <c r="E136" s="10"/>
-      <c r="F136" s="2"/>
+      <c r="C136" t="s">
+        <v>285</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E136" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B137" s="6"/>
-      <c r="D137" s="4"/>
-      <c r="E137" s="10"/>
-      <c r="F137" s="2"/>
+      <c r="C137" t="s">
+        <v>285</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E137" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B138" s="6"/>
-      <c r="D138" s="4"/>
-      <c r="E138" s="10"/>
-      <c r="F138" s="2"/>
+      <c r="C138" t="s">
+        <v>285</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E138" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B139" s="6"/>
-      <c r="D139" s="4"/>
-      <c r="E139" s="10"/>
-      <c r="F139" s="2"/>
+      <c r="C139" t="s">
+        <v>285</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E139" s="10" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B140" s="6"/>
-      <c r="D140" s="4"/>
-      <c r="E140" s="10"/>
-      <c r="F140" s="2"/>
+      <c r="C140" t="s">
+        <v>285</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E140" s="10" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B141" s="6"/>
-      <c r="D141" s="4"/>
       <c r="E141" s="9"/>
       <c r="F141" s="2"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B142" s="6"/>
-      <c r="D142" s="4"/>
       <c r="E142" s="10"/>
       <c r="F142" s="2"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B143" s="6"/>
-      <c r="D143" s="4"/>
       <c r="E143" s="10"/>
       <c r="F143" s="2"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="11"/>
       <c r="B144" s="6"/>
-      <c r="D144" s="4"/>
       <c r="E144" s="10"/>
       <c r="F144" s="2"/>
     </row>
     <row r="145" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B145" s="6"/>
-      <c r="D145" s="4"/>
       <c r="E145" s="10"/>
       <c r="F145" s="2"/>
     </row>
     <row r="146" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B146" s="6"/>
-      <c r="D146" s="4"/>
       <c r="E146" s="10"/>
       <c r="F146" s="2"/>
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B147" s="6"/>
-      <c r="D147" s="4"/>
       <c r="E147" s="10"/>
       <c r="F147" s="2"/>
     </row>
     <row r="148" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B148" s="6"/>
-      <c r="D148" s="4"/>
       <c r="E148" s="10"/>
     </row>
     <row r="149" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B149" s="6"/>
-      <c r="D149" s="4"/>
       <c r="E149" s="10"/>
+    </row>
+    <row r="208" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C208" t="s">
+        <v>297</v>
+      </c>
+      <c r="D208" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="E208" t="s">
+        <v>298</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="209" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C209" t="s">
+        <v>297</v>
+      </c>
+      <c r="D209" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="E209" t="s">
+        <v>300</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="210" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C210" t="s">
+        <v>297</v>
+      </c>
+      <c r="D210" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="E210" t="s">
+        <v>302</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="211" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C211" t="s">
+        <v>297</v>
+      </c>
+      <c r="D211" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="E211" t="s">
+        <v>305</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>304</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4134,40 +4167,45 @@
     <hyperlink ref="F85" r:id="rId80" xr:uid="{EB3F6902-5E01-43E3-9377-94B2A946F7BC}"/>
     <hyperlink ref="B2" r:id="rId81" xr:uid="{BACE61A7-1194-4B2B-9B71-8C518397F20D}"/>
     <hyperlink ref="F5" r:id="rId82" xr:uid="{F2F188C1-E72C-4537-A26F-CA65A73ED31B}"/>
-    <hyperlink ref="F115" r:id="rId83" xr:uid="{BFAC95EF-39C7-4F41-81DE-11379E5DDE9A}"/>
-    <hyperlink ref="F118" r:id="rId84" xr:uid="{84E1B954-CD63-4DCC-B95C-6E643023859A}"/>
-    <hyperlink ref="F91" r:id="rId85" xr:uid="{426EF214-B27A-43DD-AA5E-AA594CD153F3}"/>
-    <hyperlink ref="F90" r:id="rId86" xr:uid="{1AF0D57F-16F2-427D-A1BD-DF58F2AB93B6}"/>
-    <hyperlink ref="F89" r:id="rId87" xr:uid="{612F9502-F860-4C94-B97A-69E770EE6BBA}"/>
-    <hyperlink ref="F86" r:id="rId88" xr:uid="{0D2200E7-AC6B-4F68-AF5E-AE972011E62F}"/>
-    <hyperlink ref="F88" r:id="rId89" xr:uid="{2C13003E-8BD4-4ADC-BEF7-ABE8D831D714}"/>
-    <hyperlink ref="E88" r:id="rId90" display="https://leetcode.cn/problems/subarray-sum-equals-k/description/" xr:uid="{24B4A9DD-ED4D-4F7C-B0DA-409AEADDD29B}"/>
-    <hyperlink ref="F87" r:id="rId91" xr:uid="{2651510D-B6E6-41DA-8A9C-FE6B7FAD16D3}"/>
-    <hyperlink ref="F92" r:id="rId92" xr:uid="{EE94B89E-F696-4801-AB2F-603C2DA524E7}"/>
-    <hyperlink ref="F93" r:id="rId93" xr:uid="{16CD166F-BE94-43BD-AD69-568EC718BAED}"/>
-    <hyperlink ref="F94" r:id="rId94" xr:uid="{ACBA76EA-BD33-4C5F-8C29-F340B5271C54}"/>
-    <hyperlink ref="F95" r:id="rId95" xr:uid="{FFE3BC39-1380-45F1-B65B-09532C231E03}"/>
-    <hyperlink ref="F96" r:id="rId96" xr:uid="{7E119B89-9B36-4902-88EC-3D58C1E004AF}"/>
-    <hyperlink ref="F97" r:id="rId97" xr:uid="{223096FD-DFE5-470A-9A2B-095D7A838C42}"/>
-    <hyperlink ref="F98" r:id="rId98" xr:uid="{E30B9125-72AA-4D5C-94FE-CC65B01FA814}"/>
-    <hyperlink ref="F99" r:id="rId99" xr:uid="{29E3316A-4C8A-487D-9E21-34FEB78273AE}"/>
-    <hyperlink ref="F100" r:id="rId100" xr:uid="{9004A66F-987A-48F8-847D-9A3E447F6C53}"/>
-    <hyperlink ref="F101" r:id="rId101" xr:uid="{5D17E6E7-3B12-4A1E-8C36-606747D6EFFB}"/>
-    <hyperlink ref="F102" r:id="rId102" xr:uid="{2AF7FCDA-57E9-4678-8D19-36BBCDFC71C4}"/>
-    <hyperlink ref="F103" r:id="rId103" xr:uid="{096C6AF2-26C5-453A-9767-746C78AF68AD}"/>
-    <hyperlink ref="F104" r:id="rId104" xr:uid="{DBEB1415-BE48-41C4-9F06-AA2734A7D85A}"/>
-    <hyperlink ref="F105" r:id="rId105" xr:uid="{93A57F15-41C2-412A-8C3E-BE1BD0CD9F54}"/>
-    <hyperlink ref="F106" r:id="rId106" xr:uid="{A0ED7B39-DFBA-442A-B1D3-1794FD80A629}"/>
-    <hyperlink ref="E106" r:id="rId107" display="https://leetcode.cn/problems/heaters/" xr:uid="{C607E3AE-13EF-4A4C-8AF9-95AB43527DE2}"/>
-    <hyperlink ref="F107" r:id="rId108" xr:uid="{8E00240F-27AF-404B-8B21-D414CFC2E719}"/>
-    <hyperlink ref="F108" r:id="rId109" xr:uid="{2BAD3C98-5E69-4350-9F8C-F9FC09934E8F}"/>
-    <hyperlink ref="F109" r:id="rId110" xr:uid="{A58F145C-9005-4442-9914-6D120C7AF1A5}"/>
-    <hyperlink ref="F110" r:id="rId111" xr:uid="{DA468345-5960-4DA7-91E5-609D2AEF95E9}"/>
-    <hyperlink ref="F111" r:id="rId112" xr:uid="{031F66C9-96CF-40AF-85E8-C445CBC873A6}"/>
-    <hyperlink ref="F112" r:id="rId113" xr:uid="{3128A4ED-ADED-47EA-A97D-E80E2730CAC1}"/>
+    <hyperlink ref="F91" r:id="rId83" xr:uid="{426EF214-B27A-43DD-AA5E-AA594CD153F3}"/>
+    <hyperlink ref="F90" r:id="rId84" xr:uid="{1AF0D57F-16F2-427D-A1BD-DF58F2AB93B6}"/>
+    <hyperlink ref="F89" r:id="rId85" xr:uid="{612F9502-F860-4C94-B97A-69E770EE6BBA}"/>
+    <hyperlink ref="F86" r:id="rId86" xr:uid="{0D2200E7-AC6B-4F68-AF5E-AE972011E62F}"/>
+    <hyperlink ref="F88" r:id="rId87" xr:uid="{2C13003E-8BD4-4ADC-BEF7-ABE8D831D714}"/>
+    <hyperlink ref="E88" r:id="rId88" display="https://leetcode.cn/problems/subarray-sum-equals-k/description/" xr:uid="{24B4A9DD-ED4D-4F7C-B0DA-409AEADDD29B}"/>
+    <hyperlink ref="F87" r:id="rId89" xr:uid="{2651510D-B6E6-41DA-8A9C-FE6B7FAD16D3}"/>
+    <hyperlink ref="F92" r:id="rId90" xr:uid="{EE94B89E-F696-4801-AB2F-603C2DA524E7}"/>
+    <hyperlink ref="F93" r:id="rId91" xr:uid="{16CD166F-BE94-43BD-AD69-568EC718BAED}"/>
+    <hyperlink ref="F94" r:id="rId92" xr:uid="{ACBA76EA-BD33-4C5F-8C29-F340B5271C54}"/>
+    <hyperlink ref="F95" r:id="rId93" xr:uid="{FFE3BC39-1380-45F1-B65B-09532C231E03}"/>
+    <hyperlink ref="F96" r:id="rId94" xr:uid="{7E119B89-9B36-4902-88EC-3D58C1E004AF}"/>
+    <hyperlink ref="F97" r:id="rId95" xr:uid="{223096FD-DFE5-470A-9A2B-095D7A838C42}"/>
+    <hyperlink ref="F98" r:id="rId96" xr:uid="{E30B9125-72AA-4D5C-94FE-CC65B01FA814}"/>
+    <hyperlink ref="F99" r:id="rId97" xr:uid="{29E3316A-4C8A-487D-9E21-34FEB78273AE}"/>
+    <hyperlink ref="F100" r:id="rId98" xr:uid="{9004A66F-987A-48F8-847D-9A3E447F6C53}"/>
+    <hyperlink ref="F208" r:id="rId99" xr:uid="{EF2DABDC-331F-4F81-8718-346272333A2F}"/>
+    <hyperlink ref="F211" r:id="rId100" xr:uid="{9634E69C-DD54-453B-9B14-DBB9F88ED72D}"/>
+    <hyperlink ref="F127" r:id="rId101" xr:uid="{8F1AA298-A64A-4815-9047-DBC67C8337BF}"/>
+    <hyperlink ref="F128" r:id="rId102" xr:uid="{78622152-4727-438A-A410-795A3772B795}"/>
+    <hyperlink ref="F129" r:id="rId103" xr:uid="{9FA3B042-9635-4067-8D7F-DCFE0FD0F1EC}"/>
+    <hyperlink ref="F130" r:id="rId104" xr:uid="{011342B8-D53A-4B93-A164-9AB3CCD0114C}"/>
+    <hyperlink ref="F131" r:id="rId105" xr:uid="{173CD0AF-DA4B-454E-A026-5237CA781365}"/>
+    <hyperlink ref="F132" r:id="rId106" xr:uid="{8DEC01FB-D924-45EC-AC1A-E559E0313DE8}"/>
+    <hyperlink ref="E132" r:id="rId107" display="https://leetcode.cn/problems/heaters/" xr:uid="{1C2F4261-0A9A-44D6-A77C-3DF4E16ABD2D}"/>
+    <hyperlink ref="F133" r:id="rId108" xr:uid="{85565454-A061-4930-9396-CC2D8C51145D}"/>
+    <hyperlink ref="F134" r:id="rId109" xr:uid="{8652855D-4973-4277-97A6-80944FBB5F13}"/>
+    <hyperlink ref="F135" r:id="rId110" xr:uid="{AEAB5BAD-CC19-4628-802D-F250D20E4F8C}"/>
+    <hyperlink ref="F136" r:id="rId111" xr:uid="{3E529935-4210-4055-9CBC-7E68AAB58D12}"/>
+    <hyperlink ref="F137" r:id="rId112" xr:uid="{0BE44B64-CD7C-42AA-BF76-2A078CD8364B}"/>
+    <hyperlink ref="F138" r:id="rId113" xr:uid="{084FFDE3-1C51-428F-810C-AC8C578C298A}"/>
+    <hyperlink ref="F101" r:id="rId114" xr:uid="{A68C7636-F96C-4052-9593-06E69D192F54}"/>
+    <hyperlink ref="F102" r:id="rId115" xr:uid="{02996FBA-A7B9-4111-B3DA-0A985BD364B9}"/>
+    <hyperlink ref="F103" r:id="rId116" xr:uid="{82433BB8-19B2-4132-B5B2-3AEB65DED2EC}"/>
+    <hyperlink ref="F104" r:id="rId117" xr:uid="{9A5599CC-DA2F-44D9-AC18-6D86A409D05A}"/>
+    <hyperlink ref="F105" r:id="rId118" xr:uid="{76087BCB-78A4-4E42-ACB9-0594C08A6C23}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId114"/>
-  <drawing r:id="rId115"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId119"/>
+  <drawing r:id="rId120"/>
 </worksheet>
 </file>